--- a/Data/Molecules_generated_tensor_scaling_0_1.xlsx
+++ b/Data/Molecules_generated_tensor_scaling_0_1.xlsx
@@ -14,717 +14,618 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>SMILES_From_Tensor_rotation</t>
   </si>
   <si>
-    <t>C1N(C=2C=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C)C(N(C=3N2C)C)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C(N(C2=3)C)=O)C</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NCNCCCN(C)C(=O)N(C)C</t>
-  </si>
-  <si>
-    <t>C1N(C=2C=CC1=O)CC=3CC(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(=S)N2CCCC2)=O)N1C)N(C)C(NC)=O</t>
+    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(NCCCNC(C)=O)NC)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=CC(=C4)CN=[N+1]=[N-1])N=N3)C(NC)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCN2C(C3=C(C=CC=C3)C2=O)=O)=NC4=C1C(N(C(=O)N4C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N(C(=N2)NCCCN3C(C4=CC=CC=C4C3=O)=O)C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C4=C(C=CC=C4)C3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)CC=1N(C)C(SCC)=NC)=O)OC</t>
+  </si>
+  <si>
+    <t>C=12N(C(=NC=1N(C(=O)N(C)C2=O)C)NCC=3N=C[NH1])C=3C</t>
+  </si>
+  <si>
+    <t>CN(C(=NC=1N(C)C(N(C)C(=O)C=1)=O)CC)NC=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=NC=1N(C(=O)N(C)C2=O)C)NCC=3N=C[NH1])C=3</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)NC2C=1N(C)C(SCC)=NC)OC=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(C)CC=1N2C(NCCCCN)=N)C=O</t>
+  </si>
+  <si>
+    <t>C=12NC(=NC=1N(C(=O)N(C)C2=O)C)NCCN=C[NH1]C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(C(N(C(N2C)=O)C)=O)N1C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=C(CN=[N+1]=[N-1])C=C4)N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=CC=C(CN=[N+1]=[N-1])C=C5)N=N4)C=O)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=CC=C(CN=[N+1]=[N-1])C=C5)N=N4)C=O)CCC(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+1]=[N-1])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCCC/N=C2/SCC(=O)N2)=NCN(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC2=CC(=O)N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C=31)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)C1=CC(=O)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C=C(N=1)C(=O)N(C(=O)NC)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(=O)N(C2=O)C)C</t>
+  </si>
+  <si>
+    <t>CN(C)CCNC1=NC2=C(N1C)N(C)C(=O)N(C2=O)CC</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C2=C(N=1)C(=O)N(C(=O)N2C)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C)C=1N(C)C2=C(N=1)C(=O)N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(NCCCN1C(=O)CSC(N2CCCC2)=S)NCCN(C1=O)CCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCC2N3C(=O)C4=C(C=CC=C4)C3=O)NC=1CN(C2=O)CCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(NCCCNC(=O)CSC(N1CCCC1)=S)NCCN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCN2C(=O)C3=C(C=CC=C3)C2)ONC1CN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(CN=C(NCCCCN1C(C2=C(C=CC=C2)C1=O)=O)NC3=CCN(C(=O)N3C)C)O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCN(C=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)C)C1=NC=2N(C)C(N(C)C(=O)C=2N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCCCN(C)C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C1=NC=2N(C)C(N(C)C(C=2N1C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCC=1N(C)C=2C(N(C(N(C=2N=1)C)=O)C)=O)CN(C)C=C([N+1]([O-1])=O)/C=C(/C(=O)OC)SC</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C(=O)C=1N(C)C(NCCCCCCN)=N2)O)CC</t>
+  </si>
+  <si>
+    <t>C=12N(CN2C(=O)C=1N(C)C(SC(=S)N3CCCC3)=N)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(CNC(=O)C=1N(C)C(NCCCCNC(C)=O)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(CNC(=O)C=1N(C)C(NCCCCNCCCN)=N)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(N(C)C2=O)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1NC(=O)N2CC=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCCNCCCN)N1C)N(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCNC(C)=O)N2C)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CNCNCC/N=C2\NC(=O)CS2NC(=O)N(C)C1=O)CC</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(=O)N1CCNC=2N(C)C3=C(N=2)NC(=O)N(C)C3=O)CC=CC=C</t>
+  </si>
+  <si>
+    <t>O=CC=CN=C(N(C)CCN(C)C=C([N+1](=O)[O-1])/C=C(/C(OC)=O)S)N</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(N(CNCCC/N=C1\NC(CS1)=O)CC)C=O)C=O</t>
+  </si>
+  <si>
+    <t>O=CC=CN=C(N(C)CCN(C)C=C([N+1]([O-1])=O)/C=C(/C(OC)=O)S)N</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(=O)N1CCNC=2N(C)C3=C(N=2)N(C)CN(C3=O)C)OC=CC=C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CNCNCC/N=C2\NC(=O)CS2NC(=O)N(C1=O)C)CC</t>
+  </si>
+  <si>
+    <t>CNC(SC(=S)N1CCCC1)=NC2=CC(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C)C(N3C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=CC=CC=C3S2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC=2SC3=CC=CC=C3N=2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C(N3C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC1)=C(C=CC=C1)NCC(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC)=C(N3C=2CN)C3N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC)=C(NC=2N)CC(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCCN)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC)=C1NC=2CN</t>
+  </si>
+  <si>
+    <t>CN(C=1)C=NC=2C(=O)N(C)C(N(C=2N=1)C)=SC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC)=NCCN(C)C1=S=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCC(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC=3[NH1]C4=CC=CC=C4N=3)N2C)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(NCCCCN1C(CCC1=O)=O)NC)N(C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N(C)C1=S)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C)C(N(C1=S)C)=S</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C(=S)N(C)C2=S)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C)C(N(C2=S)C)=S</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C=1)C(NCCCNCCCCNCCCN=N)C=1N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C=1)C(SC(=S)N2CCCC2)=NC=1N(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C)C(N4C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)[NH1]2)=NC4=C1C(=O)N(C(=O)N4C)C</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C(=O)N4C)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC=O)N(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCC(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCNC(=O)N1CC=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NCN(C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)CNC(=O)N(C1=O)CC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCN(C)C(NC1=O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CCNC2=NC3=C(N2C)C(=O)N(C)C3=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCN(C)C(NC1=SC)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)[NH1]2)=NC4=C1C(=O)N(C)C(=O)N4C</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
+  </si>
+  <si>
+    <t>CN(C)C1C(=O)N(C)C(=O)CN(CNCCCCCN)N1C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
   </si>
   <si>
     <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
   </si>
   <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(N(C2=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC=CN2C)N(C)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>CN(C(N(C(=O)C=1N(C(=NC=1)NCCCNCC)C)N)C)C</t>
-  </si>
-  <si>
-    <t>C=12NCN(C(=O)C=1N(C(=N2)NCCCNCCCNC)C)O</t>
-  </si>
-  <si>
-    <t>CN(C(NC(=O)C=1N(C)C(=NC=1)NCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>CN(C(N(C(=O)C=1N(C)C(=NC=1)NCCNCC)C)N)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1NC(=N2)NCCCCCC)NC)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1NC(N2C)SC=CC=CC)SC=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C(=O)C=1NC(=N2)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1N(C(N2C)SC=CC=CC)N)CC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1N(C(NCCN)=NC2)C)C)OC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1N(C(=N2)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN(C(=O)C=1N(C(=N)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1NC(N2C)SC=CC=CC)CSC</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C(N(C)C2=O)=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(N(C(N(C)C2=O)=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=1N(C2)C=CN=1)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC1)NC2=C(C(N(C(=O)N2C)C)=O)N1</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(C(N(C(=O)N2C)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC3=CN2C)C(=O)N(C)C(=O)N3C</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O)C</t>
-  </si>
-  <si>
-    <t>CN(C)CCNC1=NC2=C(N1C)N(C)C(N(C)C2=O)=O</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>CN(C=1C2=CC=CC=C2)C=NC=3N(C)CN(C)C(=O)C=3N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(=O)C=2</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCN(C)C=CC1=C(NNC1=O)C=O)NCC</t>
-  </si>
-  <si>
-    <t>C1N(C1SC=NC2=CC(N(C)C(=O)N2C)=O)NCC</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(C(=O)N(C)C(=O)N2C)N=1</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C(N(C)C=3N=2)=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCCCN)C=NCC(=O)NC(N(C)CN1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC12N=NC3=C2)C(=S)N(C(=O)N3C)C=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2C(N(C1=O)C)=O)NCCCNCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2N(C(N1C)=O)C)NCCCNCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)NC=C1CN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)NC2=C1CN(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCC1NC)NC2=C(C(N(C)C(N2C)=O)=O)N1C</t>
-  </si>
-  <si>
-    <t>C=1N(C=C(N=1)ONC(=O)N(C)C=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C1N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCN1C=N)C2=C(C(N(C)C(N2C)=O)=O)C1</t>
-  </si>
-  <si>
-    <t>CN(C1CCCC2CNN)CCC=C2N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCC1CCNC)NC2=C(C(N(C)C(N2C)=O)=O)N1</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCN)N(C=1CN(C2=O)C)OC</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)C1=C(C(=O)N(C)C(N1C)=O)C</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(C(N(C)C(=O)N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCN1C)NC2=C(C(N(C)C(N2C)=O)C)ON1</t>
-  </si>
-  <si>
-    <t>CN(CCCC1CCNC)NC2=C(C(N(C)C(=O)N2C)=O)N1</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CCN(C2=O)C)CCN(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=CSC2=NC3=CC=CC=C3N2CC4=CN(CCCCCCCCN=[N+1]=[N-1])N=N4)CCC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=CSC2=NC3=CC=CC=C3N2CC4=CN(CCCC=5CCCCN=[N+1]=[N-1])N=N4)CCC(=O)N(C)C1=5</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N=N3)CCC(=O)NC=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1N(C)C3=CC=CC=C3N2C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)CN(C)CN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCN2C=N)C=C1C(=O)N(C)C(N2)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1CN(C)C(N2C)=S</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC=2C(=O)N(C(=O)N(C)C=2N)C</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCCCN)C=NC=2C(=O)NC(N(C)C=2N=1)=O</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CN(CC3=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3NC4=CC=CC=C4C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C=O)ON(CCCCCCCCNC)C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)OSC(=S)N3CCCC3C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3CC(=O)NC=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CN(C)C2=NC3=C(N(C)C(=O)N(C)C3=O)N2C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC)C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3CC(=O)NCC=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCN=[N+1]=[N-1])C=3SC4=NC5=CC=CC=C5[NH1]4</t>
-  </si>
-  <si>
-    <t>C1=NCC1N(C)C</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CCC(=O)N3C</t>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C2=C(N=1)N(C)C(N(C2=O)C)=O)CN)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CN(CNCC/N=C2\NC(=O)CS2NC)CN(C1=O)C)OC</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(NCCNC2=NC=3N(C(N(C)C(=O)C=3N2C)=O)C)=O)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(NC(NCCCN3C(C4=CC=CC=C4C3=O)=O)=N2)CCN(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCNC=3N(C)C4=C(N=3)NC(=O)N(C)C4=O)CC=CC=C2</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCNC=3N(C)C4=C(N=3)N(C)CN(C4=O)C)OC=CC=C2</t>
+  </si>
+  <si>
+    <t>CNC(NCCCCNC(CSC(N1CCCC1)=S)=O)=NC2=CC(N(C)C(N2C)=O)=O</t>
   </si>
   <si>
     <t>O=C1C2=C(N=C(NCCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
   </si>
   <si>
-    <t>C1N(CCCCCNC=N)C2=C1C(=O)N(C)C(C2=O)N</t>
-  </si>
-  <si>
-    <t>C1(CNC2)N=NN(C2=O)CN(C)C1=S</t>
-  </si>
-  <si>
-    <t>C1(CNC)N=NN(C1C)NN(C)CSC</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)C1=C(C(=O)N(C)C(C1=O)=O)NC</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC2=N)C=C1CN(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN(C1CCCCNC=N)C2=C(C(=O)N(C)C(C2=O)=O)N1</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC2=N)C=C1C(NC)C2=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)C=CC=CC</t>
-  </si>
-  <si>
-    <t>CN(CC=1N=NN(C=1)CC)CN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CC=2N(C)C3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)C1=C(N(C)C(=O)N(C)C1=O)N</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C2=C(C(=O)N(C)C(=O)N2C)N=1</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC1=O)N(C)C2=C(C(=O)N(C)C(=O)N2C)N1</t>
-  </si>
-  <si>
-    <t>C=12N(CC=CCCNC(N3CCCC3)=NC=1)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=C2C=CC=C1)CCN(C)C3=C(N(C(=O)N(C)C3=O)C)N2</t>
-  </si>
-  <si>
-    <t>CN(CC=CC1=O)N(C)C2=C(N(C)C(=O)N(C)C2=O)N1</t>
-  </si>
-  <si>
-    <t>C1N(CC=CCCNC(C=O)=CNC)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CCCNC)C2=C1N(C(N(C)C2=O)=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CC=2C3CNCNC)C=C3N(C)C=21</t>
-  </si>
-  <si>
-    <t>C(NCCC=1CCN)=NC2=C(C(=O)N(C)C(N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C12N(CC(C1)C)NC(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1(SCNCC2)N=NN(C2C)OCN1C</t>
-  </si>
-  <si>
-    <t>C1N(CCC2CNCNC)C=C2N(C)CN1</t>
-  </si>
-  <si>
-    <t>C(N1CCCCCN)=NC2=C(C(=O)N(C)C(N2C)=O)N1</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)S)CC)C)OO</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)N)CC)C)N=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1NC(=N2)NCCCCCN)CC)O</t>
-  </si>
-  <si>
-    <t>C=12N(C(NC(=O)C=1NC(=N2)NCCCCCN)CC)O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)SC)C)C)OO</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)NC)C)C)N=O</t>
-  </si>
-  <si>
-    <t>O=C1C=C(N=CNCCCCNC(CSC(N2CCCC2)=S)=O)CCC(=O)N1C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=C(NCCCCNC(CSC(N1CCCC1)=S)=O)NC)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=CNCCCCNC(CSC(N1CCCC1)=S)=O)CC(=O)N(C=O)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
-  </si>
-  <si>
-    <t>CNC=1N(C)C(=NC=1N(C(N(C)C=O)=O)C)NCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1CCNC(=S)N(C)C(=O)N1CNCCC=O</t>
-  </si>
-  <si>
-    <t>C1NCCN(C(=O)CCC(N1C)=O)C</t>
-  </si>
-  <si>
-    <t>CN(C(C=C(N(C)C=O)N=C(NCCCCCN)NC)=O)C</t>
-  </si>
-  <si>
-    <t>C1NC(C=2N(C)C(=NC=2N1C)NCCCNCCCN)=O</t>
-  </si>
-  <si>
-    <t>C1N(C2(N(C)C=C1N=C(NCC=O)C2=O)C)OC</t>
-  </si>
-  <si>
-    <t>CN1C(C=C(N(C)C1=O)N=C(NCCCCCN)NC)=O</t>
-  </si>
-  <si>
-    <t>C1N(C(C=2N(C)C(=NC=2N1C)NCCCNCCCN)=O)C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C(=O)N(C)C(N(C)CN)=C1SCC)C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C(=O)N(C)C(N(C)CN)=C1SC)C=O</t>
-  </si>
-  <si>
-    <t>CNC1C=2N(C(=O)N(C)C(N(C)C=2N)=C1SCC)C</t>
+    <t>CN(CSC1=NC=2N(C)C(=O)N(C)C(=O)C=2N1C)SCCC</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(SCC(C)C)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(NCCCCN)=N)C)=O)O</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(=O)C=1N(C)C(NCCNCCN)=N)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(CSC2=NC=3N(C)C(=O)N(C)C(=O)C=3N2C)SCCC1</t>
+  </si>
+  <si>
+    <t>C1N(C(SC2=NC=3NC(=O)N(C)C(=O)C=3N2C)C)SCCC1</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(=O)C=1N(C)C(NCCNCCN)=N2)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(C(SC2=NC=3N(C)C(=O)N(C)CC=3N2C)=O)SCCC1</t>
+  </si>
+  <si>
+    <t>CN(C(N(C)C(=O)N1CN(C)C1NCNCC)N)C=O</t>
+  </si>
+  <si>
+    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C(=O)N(C)C2=S)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C=2N(C)C(SC)=NC=2N1C=S</t>
+  </si>
+  <si>
+    <t>C1N(C)CN(C)C(SC)=NCN1C=S</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C)C(SCCC)=NCNC</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N1C)SC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(C)C=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NCN(C)C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CN(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(NCC=CCCCN=N)CNC(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C2(SC=CC2=O)C3=NC=C1N(C)C(=O)N3CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)CC=NC(=O)N(C)CN(C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CNC(=O)N1CC=O</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(C=CC2=O)=O)N1C)N(C)C(=O)NC</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(C=1N(C)C(NCCCCN)=N2)=O)C)OO</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(=O)C3=C(C=CC=C3)C2=O)NCCN(C1)OCCC</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(N1CCCC1)=S)CNC2=NC=3N(C(N(C(=O)C=3N2C)C)=O)CCCCN=[N+1]=[N-1]</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCCN2C(=O)C3=C(C=CC=C3)C2=O)NC=1CN(CCC)O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(C3=C(C2=O)C=CC=C3)=O)NCCN(C1=O)C=O</t>
   </si>
   <si>
     <t>CN1C(NCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
   </si>
   <si>
-    <t>CN1C(NCCCCNC(=O)C)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCNCCCNCCN)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(=O)CS2)=NC3=C1CN(C)C(N3C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1NC(NCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)N1C)NC(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)N1C)NC(=O)N(C)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=C(C=CC=C5)CN=[N+1]=[N-1])N=N4)N1CN)CCC(NC)=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)CCN(C=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCNC=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1])C=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CNC(SC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N)=N3</t>
-  </si>
-  <si>
-    <t>CNC(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC1=CC(N(C)C(N1C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C(=O)CSC=CCN(C)C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3CN(C(N(C)C=3N=2)=O)C</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(N(C)CCCCCNCC)=N)C=O</t>
-  </si>
-  <si>
-    <t>C=1N2C(=O)NC(C=1N(C(=N2)NCCCNCCCNCC)O)C</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(SC(N3CCCC3)=S)=N)C=O</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)NCCCNCCCNC=O)C)=O</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)N(CCN(C)C)C)C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)C(=O)N(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CC=2N=NN(C=2)CCCCCCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C=12N(CC3=CC=CC=C3)CCN=NNC=1CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=O)N(C)C=2C(=O)N(C)C(=O)N(C)C=2N1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)C=1C(=O)NC(=O)N(C)C=1N</t>
-  </si>
-  <si>
-    <t>CN(C1C=CC=O)CCC=2C(=O)N(C)C(=O)N(C)C=21</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(CN=[N+1]=[N-1])C=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC(CN=[N+1]=[N-1])=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(C=CC=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC(N2CCCC2)=S)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+1]=[N-1])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(C=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(C2C13N=NC4=C3)C=CC=C4N(CCSCCNC2=O)CC</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1]</t>
-  </si>
-  <si>
-    <t>C12N(CC13N=NC4=C3)C=CC=C4N(CC=CC=CC=C)OC(N2C)C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC2=C(N(C)C(N(C2=O)C)=O)N</t>
-  </si>
-  <si>
-    <t>C123N(CC1N(C)C=4)C(=O)N(C)C(CN(C)C=42)NC3</t>
-  </si>
-  <si>
-    <t>CN(CCC=1CCCCCN)CC=NC2=C(C(=O)N(C)C(=O)N2C)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC12N=NC3=C2)C(=O)N(C(=O)N3C)CC(=O)CNC=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C)C(N(C=3N=2)C)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)N=NN(C)C(=O)N(C)C(=O)NCC=C2</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1N(C)C=3)C(=O)N(C)C(N(C)C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCCCC)NC1=NC2=C(C(N(C)C(=O)N2C)=O)N1C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1CCCCN)CCN(C)C3=C(N(C(=O)N(C)C3=O)C)N=2</t>
-  </si>
-  <si>
-    <t>C12N(CC1C=C2C)C=3N=NN(C=3)CCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)N(C(N(C=32)C)=O)C</t>
-  </si>
-  <si>
-    <t>C123N(CC14N=NC5=C4)C=CC=C5N(CCSCCN2)C3C=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C(=O)C=2N)C</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC[NH1]C2C)NC=3N(C)C(=O)NC(=O)C1=3</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NC=3N(C)C(=O)NC(=O)C1=3</t>
-  </si>
-  <si>
-    <t>C1N(CCN(C)C=CC2=C(NNC2=O)C=O)N1C</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)CC=2N=NN(C=2)C(=O)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CNC(=O)N3C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)N(C)C=2N(C)C(=O)N(C)C(C=2N)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CNC=2N(C)C3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC=2)N(C)C=3N(C)C(=O)N(C)C(C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)N(C)C=2N(C)C(O)N(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)ONCCCCCCCCNC</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(\S)C(=O)OC)[N+1]([O-1])=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(CN=[N+1]=[N-1])=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>C=12NC(=O)N(C(C=1N(C(SCC(C)(C)C)=N2)O)C)C</t>
-  </si>
-  <si>
-    <t>CN(C(N(C)C(C=1N(C(NCC2=C[NH1]C=N2)=NC=1)C)=O)=O)C</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)CC=1NC(=N2)NCCCCCCCNCC)C)O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCCNC)C)OC</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)C(C=1N(C(=N)NCCCCCCNC)C)=O)C)O</t>
-  </si>
-  <si>
-    <t>C=12N(C(=O)N(C(C=1NC(SCC(C)(C)C)=N2)=O)C)C</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)C(C=1N(C(=N)NCCCCCCNC)C)C)=O)O</t>
+    <t>C1N(CNC(=O)N(C)C2N=C[NH1]C=C[NH1]C=C2CN1)C=O</t>
+  </si>
+  <si>
+    <t>C1N(CNC(=O)N(C)CN=C[NH1]C2=C[NH1]C=C2CN1)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(CCNC=2N(C)C3=C(N=2)C(=O)N(C)C(N3C)=O)CC(C=1)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C(=O)C=1N(C)C(NCCNCCN)=N2)C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(NCCNCCN)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C1N(CN1C(=O)C=2N(C)C(NCCCCCCN)=NC=2)C=O</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C(=O)C=1N(C)C(NCCNCCN)=N2)O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C(NC(=O)N(C)CN=C1CCNCCNN)C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C(=O)N(C)C=2N1C)CC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC1=O)C=NC=CC(=O)N(C=O)C</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)S2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(N(C)CCCNC)=NC1=CN(C(N(C)C1=O)=O)CC</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(=O)N1C)CC</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCCCNCCCCNCCCN=N)C2=C1C(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCNCCCCNCCCN=N)C=1N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)C1=CC(=O)N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCCCNCCCCNCCCN=N)C2=C1C(N(C)C(=O)N2C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C=2N(C)C(SC)=NC=2N(C1=S)C</t>
+  </si>
+  <si>
+    <t>CN(C1)CN(C)C=NCN(C(N1C)=S)S</t>
+  </si>
+  <si>
+    <t>C=1NC(SC=1NC2=CC=CC=C2N)CC=CN(CC3=CC=CC=C3CN=[N+1]=[N-1])N</t>
+  </si>
+  <si>
+    <t>C=12NC(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2)C)C=O</t>
+  </si>
+  <si>
+    <t>C=1NC2(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(SC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=C(CN=[N+1]=[N-1])C=CC=C4)N=N3)SC=O)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(SC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=C(CN=[N+1]=[N-1])C=CC=C4)N=N3)C=O)C(=O)NCC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CCN2C(=O)C=CC2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=C2C=N1)CC=NC(=O)N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(N(C)C=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NC1C=CC=CC1)=O</t>
+  </si>
+  <si>
+    <t>C123N(C)C(NCC=CC1=N2)CN(C)C3=O</t>
+  </si>
+  <si>
+    <t>CN(C=1)C=NC=2C(=O)N(C)C(N(C)C=2N=1)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(N3)=O)=NC=1N(C)C2=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(CC)O)C</t>
+  </si>
+  <si>
+    <t>C1N(C2)C1(NCC=CCCCN=N)C(N(C)C(=O)N2C=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>C1N(C2)C1(NCC=CCCCN=N)CN(C)C(=N2)OOC</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C(=O)NCC)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(=O)N(C(N2C)=O)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C2=O)CC</t>
+  </si>
+  <si>
+    <t>C1NCN(C)C=2N(C(N(C)CCCNC)=NC=2C1=O)OC=O</t>
+  </si>
+  <si>
+    <t>C=1N2C(=O)N(C)C(C=1N(C(NCCCCNCCCN)=N2)C=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(SC(=S)N2CCCC2)=N)=O)C)O</t>
+  </si>
+  <si>
+    <t>C=1N2CN(C)C(=O)C=1N(C(NCCCCNCCCN)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(=O)C=1NC(NCCCNCCCNCCCN)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=1N(C2(N(C)C(=O)C=1NC(NCCCNCCCNCCCN)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)NC(=O)C=1N(C(NCCCNC(=O)C)=N2)CCC</t>
   </si>
   <si>
     <t>CNCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
   </si>
   <si>
-    <t>CNCCCCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(=O)N(C2=O)C)C)N1C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC2=C(N(C)C(=O)N(C)C2=O)N</t>
-  </si>
-  <si>
-    <t>C#1N(C2C=CC#1)CCC=C2N(C)C(=O)N(C=O)CC</t>
-  </si>
-  <si>
-    <t>C#1N(CC2=CC#1)CCC2N(C(N(C=O)C)=O)C</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC(=O)N(C)C(N(C=O)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(N(C)C2=O)C(=O)CN(C)C2O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC(=O)N(C)C(N(C)C=O)C=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C)C(N(C(=O)C=2)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NCN(C(N(C=O)C)=O)CC=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC(=O)N(C)CN(CCCNC)CN</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+    <t>CNCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2717,270 +2618,6 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>236</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
